--- a/src/apps/bid_record/extracted_data/GEM_2025_B_6532818.xlsx
+++ b/src/apps/bid_record/extracted_data/GEM_2025_B_6532818.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Security Manpower Service Version 2.0 - OfficeCommercialInstitutions Residential Unarmed Security Guard Contract Period 1 Months , . Years of Past Experience Required for samesimilar service 3 Year s 5 Past Experience of Similar Services required Yes 7 MSE Exemption for Years of Experience and Turnover No 7 Startup Exemption for Years of Experience and Turnover No Document required from seller Experience Criteria,Bidder Turnover,Certificate Requested in ATC,OEM Authorization Certificate,OEM Annual Turnover In case any bidder is seeking exemption from Experience Turnover Criteria, the supporting documents to prove his eligibility for exemption must be uploaded for evaluation by the buyer A B A D Do you want to show documents uploaded by bidders to all bidders participated in bid Yes Documents submitted as part of a clarification or representation during the tenderbid process will also be displayed to other participated bidders after log in FBid Number GEM2025B6532818</t>
+          <t>Security Manpower Service Version 2.0 -</t>
         </is>
       </c>
     </row>
